--- a/raw_data/20200818_saline/20200818_Sensor0_Test_19.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_19.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807B1F34-7BD2-487F-AB27-E04AE8467863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>16202.857277</v>
+        <v>16202.857276999999</v>
       </c>
       <c r="B2" s="1">
         <v>4.500794</v>
       </c>
       <c r="C2" s="1">
-        <v>900.686000</v>
+        <v>900.68600000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.791000</v>
+        <v>-194.791</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>16212.902918</v>
@@ -496,13 +912,13 @@
         <v>4.503584</v>
       </c>
       <c r="H2" s="1">
-        <v>917.224000</v>
+        <v>917.22400000000005</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.657000</v>
+        <v>-164.65700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>16223.036681</v>
@@ -511,88 +927,88 @@
         <v>4.506399</v>
       </c>
       <c r="M2" s="1">
-        <v>938.259000</v>
+        <v>938.25900000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.114000</v>
+        <v>-118.114</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>16233.581594</v>
+        <v>16233.581593999999</v>
       </c>
       <c r="Q2" s="1">
         <v>4.509328</v>
       </c>
       <c r="R2" s="1">
-        <v>945.113000</v>
+        <v>945.11300000000006</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.933000</v>
+        <v>-102.93300000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>16244.140430</v>
+        <v>16244.140429999999</v>
       </c>
       <c r="V2" s="1">
-        <v>4.512261</v>
+        <v>4.5122609999999996</v>
       </c>
       <c r="W2" s="1">
-        <v>951.280000</v>
+        <v>951.28</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.373000</v>
+        <v>-89.373000000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>16254.562399</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.515156</v>
+        <v>4.5151560000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.382000</v>
+        <v>958.38199999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.174500</v>
+        <v>-80.174499999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>16265.139554</v>
+        <v>16265.139553999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.518094</v>
+        <v>4.5180939999999996</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.119000</v>
+        <v>963.11900000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.971300</v>
+        <v>-79.971299999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>16275.595219</v>
+        <v>16275.595219000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.520999</v>
+        <v>4.5209989999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.149000</v>
+        <v>971.149</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.237500</v>
+        <v>-88.237499999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>16286.469541</v>
@@ -601,28 +1017,28 @@
         <v>4.524019</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.375000</v>
+        <v>980.375</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.580000</v>
+        <v>-103.58</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>16297.491606</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.527081</v>
+        <v>4.5270809999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.912000</v>
+        <v>991.91200000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.575000</v>
+        <v>-125.575</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>16308.702185</v>
@@ -631,58 +1047,58 @@
         <v>4.530195</v>
       </c>
       <c r="BA2" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.685000</v>
+        <v>-144.685</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>16319.695513</v>
+        <v>16319.695513000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.533249</v>
+        <v>4.5332489999999996</v>
       </c>
       <c r="BF2" s="1">
-        <v>1047.360000</v>
+        <v>1047.3599999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-230.824000</v>
+        <v>-230.82400000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>16331.406555</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.536502</v>
+        <v>4.5365019999999996</v>
       </c>
       <c r="BK2" s="1">
-        <v>1127.750000</v>
+        <v>1127.75</v>
       </c>
       <c r="BL2" s="1">
-        <v>-368.966000</v>
+        <v>-368.96600000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>16341.768517</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.539380</v>
+        <v>4.5393800000000004</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-582.662000</v>
+        <v>-582.66200000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>16352.233597</v>
@@ -691,452 +1107,452 @@
         <v>4.542287</v>
       </c>
       <c r="BU2" s="1">
-        <v>1410.280000</v>
+        <v>1410.28</v>
       </c>
       <c r="BV2" s="1">
-        <v>-811.487000</v>
+        <v>-811.48699999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>16362.902512</v>
+        <v>16362.902512000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.545251</v>
+        <v>4.5452510000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.070000</v>
+        <v>1575.07</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1049.580000</v>
+        <v>-1049.58</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>16373.877522</v>
+        <v>16373.877522000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.548299</v>
+        <v>4.5482990000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1992.750000</v>
+        <v>1992.75</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1605.030000</v>
+        <v>-1605.03</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>16203.274069</v>
+        <v>16203.274068999999</v>
       </c>
       <c r="B3" s="1">
         <v>4.500909</v>
       </c>
       <c r="C3" s="1">
-        <v>900.433000</v>
+        <v>900.43299999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.647000</v>
+        <v>-194.64699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>16213.016006</v>
       </c>
       <c r="G3" s="1">
-        <v>4.503616</v>
+        <v>4.5036160000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>917.024000</v>
+        <v>917.024</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.846000</v>
+        <v>-164.846</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>16223.146792</v>
       </c>
       <c r="L3" s="1">
-        <v>4.506430</v>
+        <v>4.5064299999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>938.249000</v>
+        <v>938.24900000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.263000</v>
+        <v>-118.26300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>16233.943674</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.509429</v>
+        <v>4.5094289999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>945.081000</v>
+        <v>945.08100000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.942000</v>
+        <v>-102.94199999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>16244.498572</v>
       </c>
       <c r="V3" s="1">
-        <v>4.512361</v>
+        <v>4.5123610000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>951.237000</v>
+        <v>951.23699999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.454500</v>
+        <v>-89.454499999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>16254.944814</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.515262</v>
+        <v>4.5152619999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>958.317000</v>
+        <v>958.31700000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.233000</v>
+        <v>-80.233000000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>16265.852342</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.518292</v>
+        <v>4.5182919999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.007000</v>
+        <v>963.00699999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.108600</v>
+        <v>-80.108599999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>16276.311469</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.521198</v>
+        <v>4.5211980000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.126000</v>
+        <v>971.12599999999998</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.246400</v>
+        <v>-88.246399999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>16286.867339</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.524130</v>
+        <v>4.5241300000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.384000</v>
+        <v>980.38400000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.557000</v>
+        <v>-103.557</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>16297.896837</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.527194</v>
+        <v>4.5271939999999997</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.899000</v>
+        <v>991.899</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.556000</v>
+        <v>-125.556</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>16309.086583</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.530302</v>
+        <v>4.5303019999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1001.560000</v>
+        <v>1001.56</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.684000</v>
+        <v>-144.684</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>16320.381976</v>
+        <v>16320.381976000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.533439</v>
+        <v>4.5334390000000004</v>
       </c>
       <c r="BF3" s="1">
-        <v>1047.390000</v>
+        <v>1047.3900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-230.805000</v>
+        <v>-230.80500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>16331.519668</v>
+        <v>16331.519668000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.536533</v>
+        <v>4.5365330000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1127.750000</v>
+        <v>1127.75</v>
       </c>
       <c r="BL3" s="1">
-        <v>-369.001000</v>
+        <v>-369.00099999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>16341.889499</v>
+        <v>16341.889499000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.539414</v>
+        <v>4.5394139999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-582.687000</v>
+        <v>-582.68700000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>16352.649710</v>
+        <v>16352.64971</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.542403</v>
+        <v>4.5424030000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1410.300000</v>
+        <v>1410.3</v>
       </c>
       <c r="BV3" s="1">
-        <v>-811.580000</v>
+        <v>-811.58</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>16363.382144</v>
+        <v>16363.382143999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.545384</v>
+        <v>4.5453840000000003</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.140000</v>
+        <v>1575.14</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1049.570000</v>
+        <v>-1049.57</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>16374.471696</v>
+        <v>16374.471696000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.548464</v>
+        <v>4.5484640000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1991.060000</v>
+        <v>1991.06</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1606.210000</v>
+        <v>-1606.21</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>16203.582066</v>
+        <v>16203.582066000001</v>
       </c>
       <c r="B4" s="1">
-        <v>4.500995</v>
+        <v>4.5009949999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>900.536000</v>
+        <v>900.53599999999994</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.679000</v>
+        <v>-194.679</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>16213.352759</v>
+        <v>16213.352758999999</v>
       </c>
       <c r="G4" s="1">
-        <v>4.503709</v>
+        <v>4.5037089999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>917.014000</v>
+        <v>917.01400000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.241000</v>
+        <v>-165.24100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>16223.486520</v>
+        <v>16223.48652</v>
       </c>
       <c r="L4" s="1">
-        <v>4.506524</v>
+        <v>4.5065239999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>938.486000</v>
+        <v>938.48599999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.831000</v>
+        <v>-117.831</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>16234.295835</v>
+        <v>16234.295835000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.509527</v>
+        <v>4.5095270000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>945.098000</v>
+        <v>945.09799999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.899000</v>
+        <v>-102.899</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>16245.185005</v>
+        <v>16245.185004999999</v>
       </c>
       <c r="V4" s="1">
-        <v>4.512551</v>
+        <v>4.5125510000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>951.231000</v>
+        <v>951.23099999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.403300</v>
+        <v>-89.403300000000002</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>16255.641166</v>
+        <v>16255.641165999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.515456</v>
+        <v>4.5154560000000004</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.308000</v>
+        <v>958.30799999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.227500</v>
+        <v>-80.227500000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>16266.195536</v>
+        <v>16266.195535999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.518388</v>
+        <v>4.5183879999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.180000</v>
+        <v>963.18</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.456600</v>
+        <v>-80.456599999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>16276.662611</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.521295</v>
+        <v>4.5212950000000003</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.129000</v>
+        <v>971.12900000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.252000</v>
+        <v>-88.251999999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>16287.226899</v>
+        <v>16287.226898999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.524230</v>
+        <v>4.5242300000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.392000</v>
+        <v>980.39200000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.548000</v>
+        <v>-103.548</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>16298.569444</v>
+        <v>16298.569444000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.527380</v>
+        <v>4.52738</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.901000</v>
+        <v>991.90099999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.571000</v>
+        <v>-125.571</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>16309.778006</v>
@@ -1145,467 +1561,467 @@
         <v>4.530494</v>
       </c>
       <c r="BA4" s="1">
-        <v>1001.570000</v>
+        <v>1001.57</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.689000</v>
+        <v>-144.68899999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>16320.799609</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.533555</v>
+        <v>4.5335549999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1047.370000</v>
+        <v>1047.3699999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-230.801000</v>
+        <v>-230.80099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>16331.872793</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.536631</v>
+        <v>4.5366309999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1127.710000</v>
+        <v>1127.71</v>
       </c>
       <c r="BL4" s="1">
-        <v>-368.988000</v>
+        <v>-368.988</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>16342.298246</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.539527</v>
+        <v>4.5395269999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-582.706000</v>
+        <v>-582.70600000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>16353.066381</v>
+        <v>16353.066381000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.542518</v>
+        <v>4.5425180000000003</v>
       </c>
       <c r="BU4" s="1">
-        <v>1410.400000</v>
+        <v>1410.4</v>
       </c>
       <c r="BV4" s="1">
-        <v>-811.551000</v>
+        <v>-811.55100000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>16363.815152</v>
+        <v>16363.815151999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.545504</v>
+        <v>4.5455040000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.140000</v>
+        <v>1575.14</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1049.660000</v>
+        <v>-1049.6600000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>16375.012336</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.548615</v>
+        <v>4.5486149999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1992.760000</v>
+        <v>1992.76</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1606.390000</v>
+        <v>-1606.39</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>16203.930756</v>
       </c>
       <c r="B5" s="1">
-        <v>4.501092</v>
+        <v>4.5010919999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>900.538000</v>
+        <v>900.53800000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.806000</v>
+        <v>-194.80600000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>16213.694037</v>
+        <v>16213.694036999999</v>
       </c>
       <c r="G5" s="1">
-        <v>4.503804</v>
+        <v>4.5038039999999997</v>
       </c>
       <c r="H5" s="1">
-        <v>916.856000</v>
+        <v>916.85599999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.427000</v>
+        <v>-164.42699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>16223.833720</v>
+        <v>16223.833720000001</v>
       </c>
       <c r="L5" s="1">
-        <v>4.506620</v>
+        <v>4.5066199999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>938.684000</v>
+        <v>938.68399999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.871000</v>
+        <v>-117.871</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>16234.991224</v>
+        <v>16234.991223999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.509720</v>
+        <v>4.5097199999999997</v>
       </c>
       <c r="R5" s="1">
-        <v>945.109000</v>
+        <v>945.10900000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.931000</v>
+        <v>-102.931</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>16245.527771</v>
+        <v>16245.527770999999</v>
       </c>
       <c r="V5" s="1">
-        <v>4.512647</v>
+        <v>4.5126470000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>951.329000</v>
+        <v>951.32899999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.448400</v>
+        <v>-89.448400000000007</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>16255.991342</v>
+        <v>16255.991341999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.515553</v>
+        <v>4.5155529999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>958.327000</v>
+        <v>958.327</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.260400</v>
+        <v>-80.260400000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>16266.539295</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.518483</v>
+        <v>4.5184829999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>963.116000</v>
+        <v>963.11599999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.418100</v>
+        <v>-80.418099999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>16277.315345</v>
+        <v>16277.315345000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.521476</v>
+        <v>4.5214759999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.122000</v>
+        <v>971.12199999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.258800</v>
+        <v>-88.258799999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>16287.889556</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.524414</v>
+        <v>4.5244140000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.380000</v>
+        <v>980.38</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.576000</v>
+        <v>-103.57599999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>16299.022756</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.527506</v>
+        <v>4.5275059999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.907000</v>
+        <v>991.90700000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.586000</v>
+        <v>-125.586</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>16310.164222</v>
+        <v>16310.164221999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.530601</v>
+        <v>4.5306009999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1001.560000</v>
+        <v>1001.56</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.697000</v>
+        <v>-144.697</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>16321.159703</v>
+        <v>16321.159702999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.533655</v>
+        <v>4.5336550000000004</v>
       </c>
       <c r="BF5" s="1">
-        <v>1047.340000</v>
+        <v>1047.3399999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-230.811000</v>
+        <v>-230.81100000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>16332.247800</v>
+        <v>16332.247799999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.536735</v>
+        <v>4.5367350000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1127.710000</v>
+        <v>1127.71</v>
       </c>
       <c r="BL5" s="1">
-        <v>-369.016000</v>
+        <v>-369.01600000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>16342.694010</v>
+        <v>16342.694009999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.539637</v>
+        <v>4.5396369999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-582.705000</v>
+        <v>-582.70500000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>16353.499357</v>
+        <v>16353.499357000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.542639</v>
+        <v>4.5426390000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>1410.480000</v>
+        <v>1410.48</v>
       </c>
       <c r="BV5" s="1">
-        <v>-811.678000</v>
+        <v>-811.678</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>16364.235758</v>
+        <v>16364.235758000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.545621</v>
+        <v>4.5456209999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1575.000000</v>
+        <v>1575</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1049.680000</v>
+        <v>-1049.68</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>16375.549502</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.548764</v>
+        <v>4.5487640000000003</v>
       </c>
       <c r="CE5" s="1">
-        <v>1991.570000</v>
+        <v>1991.57</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1605.260000</v>
+        <v>-1605.26</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>16204.273666</v>
+        <v>16204.273665999999</v>
       </c>
       <c r="B6" s="1">
-        <v>4.501187</v>
+        <v>4.5011869999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>900.629000</v>
+        <v>900.62900000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.552000</v>
+        <v>-194.55199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>16214.382980</v>
+        <v>16214.38298</v>
       </c>
       <c r="G6" s="1">
-        <v>4.503995</v>
+        <v>4.5039949999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>916.590000</v>
+        <v>916.59</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.734000</v>
+        <v>-164.73400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>16224.522167</v>
+        <v>16224.522166999999</v>
       </c>
       <c r="L6" s="1">
         <v>4.506812</v>
       </c>
       <c r="M6" s="1">
-        <v>938.985000</v>
+        <v>938.98500000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.063000</v>
+        <v>-118.063</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>16235.335448</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.509815</v>
+        <v>4.5098149999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>945.125000</v>
+        <v>945.125</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.899000</v>
+        <v>-102.899</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>16245.875434</v>
       </c>
       <c r="V6" s="1">
-        <v>4.512743</v>
+        <v>4.5127430000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>951.336000</v>
+        <v>951.33600000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.384700</v>
+        <v>-89.384699999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>16256.340526</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.515650</v>
+        <v>4.5156499999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.252000</v>
+        <v>958.25199999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.309100</v>
+        <v>-80.309100000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>16267.189022</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.518664</v>
+        <v>4.5186640000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>963.042000</v>
+        <v>963.04200000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.563100</v>
+        <v>-80.563100000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>16277.706192</v>
@@ -1614,602 +2030,602 @@
         <v>4.521585</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.134000</v>
+        <v>971.13400000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.240200</v>
+        <v>-88.240200000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>16288.304738</v>
+        <v>16288.304738000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.524529</v>
+        <v>4.5245290000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.381000</v>
+        <v>980.38099999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.579000</v>
+        <v>-103.57899999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>16299.389796</v>
+        <v>16299.389795999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.527608</v>
+        <v>4.5276079999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.879000</v>
+        <v>991.87900000000002</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.549000</v>
+        <v>-125.54900000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>16310.523534</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.530701</v>
+        <v>4.5307009999999996</v>
       </c>
       <c r="BA6" s="1">
-        <v>1001.560000</v>
+        <v>1001.56</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.682000</v>
+        <v>-144.68199999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>16321.520791</v>
+        <v>16321.520791000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.533756</v>
+        <v>4.5337560000000003</v>
       </c>
       <c r="BF6" s="1">
-        <v>1047.330000</v>
+        <v>1047.33</v>
       </c>
       <c r="BG6" s="1">
-        <v>-230.819000</v>
+        <v>-230.81899999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>16332.675320</v>
+        <v>16332.67532</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.536854</v>
+        <v>4.5368539999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1127.720000</v>
+        <v>1127.72</v>
       </c>
       <c r="BL6" s="1">
-        <v>-369.008000</v>
+        <v>-369.00799999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>16343.124574</v>
+        <v>16343.124573999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.539757</v>
+        <v>4.5397569999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-582.732000</v>
+        <v>-582.73199999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>16353.927066</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.542758</v>
+        <v>4.5427580000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="BV6" s="1">
-        <v>-811.526000</v>
+        <v>-811.52599999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>16364.655902</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.545738</v>
+        <v>4.5457380000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.070000</v>
+        <v>1575.07</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1049.640000</v>
+        <v>-1049.6400000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>16376.087166</v>
+        <v>16376.087165999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.548913</v>
+        <v>4.5489129999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1991.850000</v>
+        <v>1991.85</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1607.210000</v>
+        <v>-1607.21</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>16204.953505</v>
+        <v>16204.953504999999</v>
       </c>
       <c r="B7" s="1">
-        <v>4.501376</v>
+        <v>4.5013759999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>900.665000</v>
+        <v>900.66499999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.863000</v>
+        <v>-194.863</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>16214.726179</v>
+        <v>16214.726178999999</v>
       </c>
       <c r="G7" s="1">
-        <v>4.504091</v>
+        <v>4.5040909999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>916.712000</v>
+        <v>916.71199999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-164.394000</v>
+        <v>-164.39400000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>16224.871921</v>
       </c>
       <c r="L7" s="1">
-        <v>4.506909</v>
+        <v>4.5069090000000003</v>
       </c>
       <c r="M7" s="1">
-        <v>938.757000</v>
+        <v>938.75699999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.136000</v>
+        <v>-118.136</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>16235.686120</v>
+        <v>16235.68612</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.509913</v>
+        <v>4.5099130000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>945.098000</v>
+        <v>945.09799999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.920000</v>
+        <v>-102.92</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>16246.518250</v>
+        <v>16246.518249999999</v>
       </c>
       <c r="V7" s="1">
-        <v>4.512922</v>
+        <v>4.5129219999999997</v>
       </c>
       <c r="W7" s="1">
-        <v>951.369000</v>
+        <v>951.36900000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.398000</v>
+        <v>-89.397999999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>16256.988332</v>
+        <v>16256.988332000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.515830</v>
+        <v>4.5158300000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.287000</v>
+        <v>958.28700000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.298900</v>
+        <v>-80.298900000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>16267.570941</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.518770</v>
+        <v>4.51877</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.019000</v>
+        <v>963.01900000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.375700</v>
+        <v>-80.375699999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>16278.055376</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.521682</v>
+        <v>4.5216820000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.119000</v>
+        <v>971.11900000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.258900</v>
+        <v>-88.258899999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>16288.695554</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.524638</v>
+        <v>4.5246380000000004</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.365000</v>
+        <v>980.36500000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.580000</v>
+        <v>-103.58</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>16299.754852</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.527710</v>
+        <v>4.5277099999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.893000</v>
+        <v>991.89300000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.554000</v>
+        <v>-125.554</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>16310.943110</v>
+        <v>16310.94311</v>
       </c>
       <c r="AZ7" s="1">
         <v>4.530818</v>
       </c>
       <c r="BA7" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.696000</v>
+        <v>-144.696</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>16321.950325</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.533875</v>
+        <v>4.5338750000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1047.360000</v>
+        <v>1047.3599999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-230.800000</v>
+        <v>-230.8</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>16332.999207</v>
+        <v>16332.999207000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.536944</v>
+        <v>4.5369440000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1127.700000</v>
+        <v>1127.7</v>
       </c>
       <c r="BL7" s="1">
-        <v>-368.988000</v>
+        <v>-368.988</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>16343.511915</v>
+        <v>16343.511914999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.539864</v>
+        <v>4.5398639999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-582.777000</v>
+        <v>-582.77700000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>16354.341100</v>
+        <v>16354.3411</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.542873</v>
+        <v>4.5428730000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="BV7" s="1">
-        <v>-811.521000</v>
+        <v>-811.52099999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>16365.083420</v>
+        <v>16365.083420000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.545857</v>
+        <v>4.5458569999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1575.160000</v>
+        <v>1575.16</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1049.740000</v>
+        <v>-1049.74</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>16376.712125</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.549087</v>
+        <v>4.5490870000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1991.030000</v>
+        <v>1991.03</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1605.130000</v>
+        <v>-1605.13</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>16205.305168</v>
+        <v>16205.305168000001</v>
       </c>
       <c r="B8" s="1">
         <v>4.501474</v>
       </c>
       <c r="C8" s="1">
-        <v>900.383000</v>
+        <v>900.38300000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.801000</v>
+        <v>-194.80099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>16215.069907</v>
+        <v>16215.069906999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4.504186</v>
+        <v>4.5041859999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>916.765000</v>
+        <v>916.76499999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.720000</v>
+        <v>-164.72</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>16225.216102</v>
       </c>
       <c r="L8" s="1">
-        <v>4.507004</v>
+        <v>4.5070040000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>938.597000</v>
+        <v>938.59699999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.199000</v>
+        <v>-118.199</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>16236.347815</v>
+        <v>16236.347814999999</v>
       </c>
       <c r="Q8" s="1">
         <v>4.510097</v>
       </c>
       <c r="R8" s="1">
-        <v>945.054000</v>
+        <v>945.05399999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.940000</v>
+        <v>-102.94</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>16246.905129</v>
+        <v>16246.905129000001</v>
       </c>
       <c r="V8" s="1">
-        <v>4.513029</v>
+        <v>4.5130290000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>951.273000</v>
+        <v>951.27300000000002</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.417700</v>
+        <v>-89.417699999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>16257.383115</v>
+        <v>16257.383115000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.515940</v>
+        <v>4.5159399999999996</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.343000</v>
+        <v>958.34299999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.300400</v>
+        <v>-80.300399999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>16267.913181</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.518865</v>
+        <v>4.5188649999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>962.963000</v>
+        <v>962.96299999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.312100</v>
+        <v>-80.312100000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>16278.408031</v>
+        <v>16278.408031000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.521780</v>
+        <v>4.5217799999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.140000</v>
+        <v>971.14</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.263700</v>
+        <v>-88.2637</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>16289.054690</v>
+        <v>16289.054690000001</v>
       </c>
       <c r="AP8" s="1">
         <v>4.524737</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.374000</v>
+        <v>980.37400000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.591000</v>
+        <v>-103.59099999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>16300.178466</v>
+        <v>16300.178465999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.527827</v>
+        <v>4.5278270000000003</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.892000</v>
+        <v>991.89200000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.572000</v>
+        <v>-125.572</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>16311.241701</v>
+        <v>16311.241701000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.530900</v>
+        <v>4.5308999999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1001.550000</v>
+        <v>1001.55</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.688000</v>
+        <v>-144.68799999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>16322.242503</v>
+        <v>16322.242502999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.533956</v>
+        <v>4.5339559999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1047.360000</v>
+        <v>1047.3599999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-230.798000</v>
+        <v>-230.798</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>16333.397990</v>
+        <v>16333.397989999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.537055</v>
+        <v>4.5370549999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1127.720000</v>
+        <v>1127.72</v>
       </c>
       <c r="BL8" s="1">
-        <v>-368.983000</v>
+        <v>-368.983</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>16343.931064</v>
@@ -2218,664 +2634,664 @@
         <v>4.539981</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-582.741000</v>
+        <v>-582.74099999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>16354.772586</v>
+        <v>16354.772585999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.542992</v>
+        <v>4.5429919999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="BV8" s="1">
-        <v>-811.420000</v>
+        <v>-811.42</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>16365.498604</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.545972</v>
+        <v>4.5459719999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1574.990000</v>
+        <v>1574.99</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1049.680000</v>
+        <v>-1049.68</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>16377.168941</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.549214</v>
+        <v>4.5492140000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1990.810000</v>
+        <v>1990.81</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1606.120000</v>
+        <v>-1606.12</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>16205.645424</v>
       </c>
       <c r="B9" s="1">
-        <v>4.501568</v>
+        <v>4.5015679999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>900.648000</v>
+        <v>900.64800000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.697000</v>
+        <v>-194.697</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>16215.726114</v>
+        <v>16215.726113999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4.504368</v>
+        <v>4.5043680000000004</v>
       </c>
       <c r="H9" s="1">
-        <v>916.609000</v>
+        <v>916.60900000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-164.718000</v>
+        <v>-164.71799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>16225.866820</v>
+        <v>16225.866819999999</v>
       </c>
       <c r="L9" s="1">
-        <v>4.507185</v>
+        <v>4.5071849999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>938.888000</v>
+        <v>938.88800000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.037000</v>
+        <v>-118.03700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>16236.732214</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.510203</v>
+        <v>4.5102029999999997</v>
       </c>
       <c r="R9" s="1">
-        <v>945.080000</v>
+        <v>945.08</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.882000</v>
+        <v>-102.88200000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>16247.255336</v>
       </c>
       <c r="V9" s="1">
-        <v>4.513126</v>
+        <v>4.5131259999999997</v>
       </c>
       <c r="W9" s="1">
-        <v>951.363000</v>
+        <v>951.36300000000006</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.459500</v>
+        <v>-89.459500000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>16257.732300</v>
+        <v>16257.7323</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.516037</v>
+        <v>4.5160369999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>958.317000</v>
+        <v>958.31700000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.335800</v>
+        <v>-80.335800000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>16268.263886</v>
+        <v>16268.263886000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.518962</v>
+        <v>4.5189620000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>962.992000</v>
+        <v>962.99199999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.387700</v>
+        <v>-80.387699999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>16278.825663</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.521896</v>
+        <v>4.5218959999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.119000</v>
+        <v>971.11900000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.230900</v>
+        <v>-88.230900000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>16289.471793</v>
+        <v>16289.471793000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.524853</v>
+        <v>4.5248530000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.390000</v>
+        <v>980.39</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.561000</v>
+        <v>-103.56100000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>16300.482482</v>
+        <v>16300.482481999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.527912</v>
+        <v>4.5279119999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.904000</v>
+        <v>991.904</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.573000</v>
+        <v>-125.57299999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>16311.599848</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.531000</v>
+        <v>4.5309999999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.681000</v>
+        <v>-144.68100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>16322.606037</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.534057</v>
+        <v>4.5340569999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1047.370000</v>
+        <v>1047.3699999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-230.827000</v>
+        <v>-230.827</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>16333.770982</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.537159</v>
+        <v>4.5371589999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1127.710000</v>
+        <v>1127.71</v>
       </c>
       <c r="BL9" s="1">
-        <v>-368.958000</v>
+        <v>-368.95800000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>16344.749458</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.540208</v>
+        <v>4.5402079999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-582.702000</v>
+        <v>-582.702</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>16355.195179</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.543110</v>
+        <v>4.5431100000000004</v>
       </c>
       <c r="BU9" s="1">
-        <v>1410.810000</v>
+        <v>1410.81</v>
       </c>
       <c r="BV9" s="1">
-        <v>-811.421000</v>
+        <v>-811.42100000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>16365.954891</v>
+        <v>16365.954890999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.546099</v>
+        <v>4.5460989999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.150000</v>
+        <v>1575.15</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1049.650000</v>
+        <v>-1049.6500000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>16377.689774</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.549358</v>
+        <v>4.5493579999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1992.120000</v>
+        <v>1992.12</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1607.010000</v>
+        <v>-1607.01</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>16206.293727</v>
       </c>
       <c r="B10" s="1">
-        <v>4.501748</v>
+        <v>4.5017480000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>900.661000</v>
+        <v>900.66099999999994</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.787000</v>
+        <v>-194.78700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>16216.107538</v>
       </c>
       <c r="G10" s="1">
-        <v>4.504474</v>
+        <v>4.5044740000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>916.646000</v>
+        <v>916.64599999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.078000</v>
+        <v>-165.078</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>16226.251260</v>
+        <v>16226.251259999999</v>
       </c>
       <c r="L10" s="1">
-        <v>4.507292</v>
+        <v>4.5072919999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>938.902000</v>
+        <v>938.90200000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.011000</v>
+        <v>-118.011</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>16237.080870</v>
+        <v>16237.08087</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.510300</v>
+        <v>4.5103</v>
       </c>
       <c r="R10" s="1">
-        <v>945.091000</v>
+        <v>945.09100000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.907000</v>
+        <v>-102.907</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>16247.595560</v>
+        <v>16247.59556</v>
       </c>
       <c r="V10" s="1">
-        <v>4.513221</v>
+        <v>4.5132209999999997</v>
       </c>
       <c r="W10" s="1">
-        <v>951.299000</v>
+        <v>951.29899999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.393700</v>
+        <v>-89.393699999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>16258.080986</v>
+        <v>16258.080986000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.516134</v>
+        <v>4.5161340000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.295000</v>
+        <v>958.29499999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.303000</v>
+        <v>-80.302999999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>16268.686444</v>
+        <v>16268.686444000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.519080</v>
+        <v>4.5190799999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>963.003000</v>
+        <v>963.00300000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.328500</v>
+        <v>-80.328500000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>16279.105902</v>
+        <v>16279.105901999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.521974</v>
+        <v>4.5219740000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.123000</v>
+        <v>971.12300000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.242900</v>
+        <v>-88.242900000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>16289.772368</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.524937</v>
+        <v>4.5249370000000004</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.371000</v>
+        <v>980.37099999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.558000</v>
+        <v>-103.55800000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>16300.848299</v>
+        <v>16300.848298999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.528013</v>
+        <v>4.5280129999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.910000</v>
+        <v>991.91</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.570000</v>
+        <v>-125.57</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>16311.957956</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.531099</v>
+        <v>4.5310990000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1001.520000</v>
+        <v>1001.52</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.613000</v>
+        <v>-144.613</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>16322.966629</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.534157</v>
+        <v>4.5341570000000004</v>
       </c>
       <c r="BF10" s="1">
-        <v>1047.350000</v>
+        <v>1047.3499999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-230.800000</v>
+        <v>-230.8</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>16334.522421</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.537367</v>
+        <v>4.5373669999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1127.690000</v>
+        <v>1127.69</v>
       </c>
       <c r="BL10" s="1">
-        <v>-368.987000</v>
+        <v>-368.98700000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>16345.163622</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.540323</v>
+        <v>4.5403229999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-582.742000</v>
+        <v>-582.74199999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>16355.609337</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.543225</v>
+        <v>4.5432249999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>1410.760000</v>
+        <v>1410.76</v>
       </c>
       <c r="BV10" s="1">
-        <v>-811.320000</v>
+        <v>-811.32</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>16366.398838</v>
+        <v>16366.398837999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.546222</v>
+        <v>4.5462220000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.110000</v>
+        <v>1575.11</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1049.510000</v>
+        <v>-1049.51</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>16378.522523</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.549590</v>
+        <v>4.5495900000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1992.770000</v>
+        <v>1992.77</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1605.680000</v>
+        <v>-1605.68</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>16206.670686</v>
+        <v>16206.670685999999</v>
       </c>
       <c r="B11" s="1">
-        <v>4.501853</v>
+        <v>4.5018529999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>900.676000</v>
+        <v>900.67600000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.721000</v>
+        <v>-194.721</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>16216.454241</v>
+        <v>16216.454240999999</v>
       </c>
       <c r="G11" s="1">
-        <v>4.504571</v>
+        <v>4.5045710000000003</v>
       </c>
       <c r="H11" s="1">
-        <v>916.823000</v>
+        <v>916.82299999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.041000</v>
+        <v>-165.041</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>16226.660459</v>
+        <v>16226.660459000001</v>
       </c>
       <c r="L11" s="1">
-        <v>4.507406</v>
+        <v>4.5074059999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>938.666000</v>
+        <v>938.66600000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.891000</v>
+        <v>-117.89100000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>16237.429061</v>
+        <v>16237.429061000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.510397</v>
+        <v>4.5103970000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>945.106000</v>
+        <v>945.10599999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.894000</v>
+        <v>-102.89400000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>16248.012700</v>
+        <v>16248.012699999999</v>
       </c>
       <c r="V11" s="1">
-        <v>4.513337</v>
+        <v>4.5133369999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>951.328000</v>
+        <v>951.32799999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.426400</v>
+        <v>-89.426400000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>16258.499146</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.516250</v>
+        <v>4.5162500000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>958.253000</v>
+        <v>958.25300000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.124200</v>
+        <v>-80.124200000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>16268.968668</v>
@@ -2884,255 +3300,255 @@
         <v>4.519158</v>
       </c>
       <c r="AG11" s="1">
-        <v>963.053000</v>
+        <v>963.053</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.429400</v>
+        <v>-80.429400000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>16279.455582</v>
+        <v>16279.455582000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.522071</v>
+        <v>4.5220710000000004</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.146000</v>
+        <v>971.14599999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.248300</v>
+        <v>-88.2483</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>16290.140896</v>
+        <v>16290.140896000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.525039</v>
+        <v>4.5250389999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.384000</v>
+        <v>980.38400000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.579000</v>
+        <v>-103.57899999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>16301.210609</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.528114</v>
+        <v>4.5281140000000004</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.877000</v>
+        <v>991.87699999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.574000</v>
+        <v>-125.574</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>16312.674642</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.531299</v>
+        <v>4.5312989999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.667000</v>
+        <v>-144.667</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>16323.693795</v>
+        <v>16323.693794999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.534359</v>
+        <v>4.5343590000000003</v>
       </c>
       <c r="BF11" s="1">
-        <v>1047.350000</v>
+        <v>1047.3499999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-230.799000</v>
+        <v>-230.79900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>16334.897397</v>
+        <v>16334.897397000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>4.537471</v>
       </c>
       <c r="BK11" s="1">
-        <v>1127.690000</v>
+        <v>1127.69</v>
       </c>
       <c r="BL11" s="1">
-        <v>-368.980000</v>
+        <v>-368.98</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>16345.565848</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.540435</v>
+        <v>4.5404350000000004</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-582.775000</v>
+        <v>-582.77499999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>16356.038377</v>
+        <v>16356.038377000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.543344</v>
+        <v>4.5433440000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1410.840000</v>
+        <v>1410.84</v>
       </c>
       <c r="BV11" s="1">
-        <v>-811.205000</v>
+        <v>-811.20500000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>16367.123466</v>
+        <v>16367.123465999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.546423</v>
+        <v>4.5464229999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.070000</v>
+        <v>1575.07</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1049.660000</v>
+        <v>-1049.6600000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>16378.725387</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.549646</v>
+        <v>4.5496460000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1991.370000</v>
+        <v>1991.37</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1605.210000</v>
+        <v>-1605.21</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>16207.013390</v>
+        <v>16207.01339</v>
       </c>
       <c r="B12" s="1">
-        <v>4.501948</v>
+        <v>4.5019479999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>900.525000</v>
+        <v>900.52499999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.556000</v>
+        <v>-194.55600000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>16216.797012</v>
+        <v>16216.797012000001</v>
       </c>
       <c r="G12" s="1">
-        <v>4.504666</v>
+        <v>4.5046660000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>916.517000</v>
+        <v>916.51700000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-164.538000</v>
+        <v>-164.53800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>16227.258132</v>
+        <v>16227.258132000001</v>
       </c>
       <c r="L12" s="1">
-        <v>4.507572</v>
+        <v>4.5075719999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>938.924000</v>
+        <v>938.92399999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.972000</v>
+        <v>-117.97199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>16237.844213</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.510512</v>
+        <v>4.5105120000000003</v>
       </c>
       <c r="R12" s="1">
-        <v>945.109000</v>
+        <v>945.10900000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.920000</v>
+        <v>-102.92</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>16248.292967</v>
+        <v>16248.292966999999</v>
       </c>
       <c r="V12" s="1">
-        <v>4.513415</v>
+        <v>4.5134150000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>951.278000</v>
+        <v>951.27800000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.357100</v>
+        <v>-89.357100000000003</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>16258.779353</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.516328</v>
+        <v>4.5163279999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.341000</v>
+        <v>958.34100000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.315800</v>
+        <v>-80.315799999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>16269.310411</v>
@@ -3141,467 +3557,467 @@
         <v>4.519253</v>
       </c>
       <c r="AG12" s="1">
-        <v>962.939000</v>
+        <v>962.93899999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.109900</v>
+        <v>-80.109899999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>16279.800831</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.522167</v>
+        <v>4.5221669999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.135000</v>
+        <v>971.13499999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.243700</v>
+        <v>-88.243700000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>16290.499328</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.525139</v>
+        <v>4.5251390000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.382000</v>
+        <v>980.38199999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.573000</v>
+        <v>-103.57299999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>16301.941216</v>
+        <v>16301.941215999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.528317</v>
+        <v>4.5283170000000004</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.874000</v>
+        <v>991.87400000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.577000</v>
+        <v>-125.577</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>16313.063014</v>
+        <v>16313.063013999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.531406</v>
+        <v>4.5314059999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.663000</v>
+        <v>-144.66300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>16324.070755</v>
+        <v>16324.070755000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.534464</v>
+        <v>4.5344639999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1047.360000</v>
+        <v>1047.3599999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-230.806000</v>
+        <v>-230.80600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>16335.273364</v>
+        <v>16335.273364000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.537576</v>
+        <v>4.5375759999999996</v>
       </c>
       <c r="BK12" s="1">
-        <v>1127.690000</v>
+        <v>1127.69</v>
       </c>
       <c r="BL12" s="1">
-        <v>-368.978000</v>
+        <v>-368.97800000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>16346.296951</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.540638</v>
+        <v>4.5406380000000004</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-582.732000</v>
+        <v>-582.73199999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>16356.782377</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.543551</v>
+        <v>4.5435509999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1410.770000</v>
+        <v>1410.77</v>
       </c>
       <c r="BV12" s="1">
-        <v>-811.042000</v>
+        <v>-811.04200000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>16367.274746</v>
+        <v>16367.274745999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.546465</v>
+        <v>4.5464650000000004</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.040000</v>
+        <v>1575.04</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1049.660000</v>
+        <v>-1049.6600000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>16379.240730</v>
+        <v>16379.24073</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.549789</v>
+        <v>4.5497889999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>1991.430000</v>
+        <v>1991.43</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1605.230000</v>
+        <v>-1605.23</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>16207.352191</v>
       </c>
       <c r="B13" s="1">
-        <v>4.502042</v>
+        <v>4.5020420000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>900.584000</v>
+        <v>900.58399999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.582000</v>
+        <v>-194.58199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>16217.216096</v>
       </c>
       <c r="G13" s="1">
-        <v>4.504782</v>
+        <v>4.5047819999999996</v>
       </c>
       <c r="H13" s="1">
-        <v>917.361000</v>
+        <v>917.36099999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.271000</v>
+        <v>-165.27099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>16227.641042</v>
+        <v>16227.641041999999</v>
       </c>
       <c r="L13" s="1">
-        <v>4.507678</v>
+        <v>4.5076780000000003</v>
       </c>
       <c r="M13" s="1">
-        <v>938.737000</v>
+        <v>938.73699999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.143000</v>
+        <v>-118.143</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>16238.126934</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.510591</v>
+        <v>4.5105909999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>945.103000</v>
+        <v>945.10299999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.956000</v>
+        <v>-102.956</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>16248.638153</v>
       </c>
       <c r="V13" s="1">
-        <v>4.513511</v>
+        <v>4.5135110000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>951.335000</v>
+        <v>951.33500000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.534900</v>
+        <v>-89.534899999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>16259.129529</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.516425</v>
+        <v>4.5164249999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.239000</v>
+        <v>958.23900000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.204800</v>
+        <v>-80.204800000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>16269.653644</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.519348</v>
+        <v>4.5193479999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>963.194000</v>
+        <v>963.19399999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.119800</v>
+        <v>-80.119799999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>16280.500158</v>
+        <v>16280.500158000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.522361</v>
+        <v>4.5223610000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.118000</v>
+        <v>971.11800000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.263400</v>
+        <v>-88.263400000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>16291.217710</v>
+        <v>16291.217710000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.525338</v>
+        <v>4.5253379999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.373000</v>
+        <v>980.37300000000005</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.554000</v>
+        <v>-103.554</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>16302.335072</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.528426</v>
+        <v>4.5284259999999996</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.889000</v>
+        <v>991.88900000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.591000</v>
+        <v>-125.59099999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>16313.443441</v>
+        <v>16313.443440999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.531512</v>
+        <v>4.5315120000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.606000</v>
+        <v>-144.60599999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>16324.431346</v>
+        <v>16324.431345999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.534564</v>
+        <v>4.5345639999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1047.350000</v>
+        <v>1047.3499999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-230.779000</v>
+        <v>-230.779</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>16335.955859</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.537766</v>
+        <v>4.5377660000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1127.720000</v>
+        <v>1127.72</v>
       </c>
       <c r="BL13" s="1">
-        <v>-368.948000</v>
+        <v>-368.94799999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>16346.410038</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.540669</v>
+        <v>4.5406690000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-582.762000</v>
+        <v>-582.76199999999994</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>16356.913855</v>
+        <v>16356.913855000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.543587</v>
+        <v>4.5435869999999996</v>
       </c>
       <c r="BU13" s="1">
-        <v>1410.720000</v>
+        <v>1410.72</v>
       </c>
       <c r="BV13" s="1">
-        <v>-810.999000</v>
+        <v>-810.99900000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>16367.698361</v>
+        <v>16367.698361000001</v>
       </c>
       <c r="BY13" s="1">
         <v>4.546583</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.050000</v>
+        <v>1575.05</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1049.530000</v>
+        <v>-1049.53</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>16379.793797</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.549943</v>
+        <v>4.5499429999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1992.580000</v>
+        <v>1992.58</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1605.270000</v>
+        <v>-1605.27</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>16207.774252</v>
+        <v>16207.774251999999</v>
       </c>
       <c r="B14" s="1">
-        <v>4.502160</v>
+        <v>4.5021599999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>900.391000</v>
+        <v>900.39099999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.608000</v>
+        <v>-194.608</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>16217.490411</v>
+        <v>16217.490411000001</v>
       </c>
       <c r="G14" s="1">
-        <v>4.504858</v>
+        <v>4.5048579999999996</v>
       </c>
       <c r="H14" s="1">
-        <v>916.878000</v>
+        <v>916.87800000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.166000</v>
+        <v>-165.166</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>16227.987217</v>
       </c>
       <c r="L14" s="1">
-        <v>4.507774</v>
+        <v>4.5077740000000004</v>
       </c>
       <c r="M14" s="1">
-        <v>938.742000</v>
+        <v>938.74199999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.000000</v>
+        <v>-118</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>16238.476649</v>
@@ -3610,28 +4026,28 @@
         <v>4.510688</v>
       </c>
       <c r="R14" s="1">
-        <v>945.072000</v>
+        <v>945.072</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.936000</v>
+        <v>-102.93600000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>16248.976950</v>
+        <v>16248.97695</v>
       </c>
       <c r="V14" s="1">
-        <v>4.513605</v>
+        <v>4.5136050000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>951.292000</v>
+        <v>951.29200000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.449500</v>
+        <v>-89.4495</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>16259.475736</v>
@@ -3640,438 +4056,438 @@
         <v>4.516521</v>
       </c>
       <c r="AB14" s="1">
-        <v>958.236000</v>
+        <v>958.23599999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.255300</v>
+        <v>-80.255300000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>16270.342090</v>
+        <v>16270.34209</v>
       </c>
       <c r="AF14" s="1">
         <v>4.519539</v>
       </c>
       <c r="AG14" s="1">
-        <v>963.264000</v>
+        <v>963.26400000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.154500</v>
+        <v>-80.154499999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>16280.850863</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.522459</v>
+        <v>4.5224589999999996</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.133000</v>
+        <v>971.13300000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.225000</v>
+        <v>-88.224999999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>16291.578302</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.525438</v>
+        <v>4.5254380000000003</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.385000</v>
+        <v>980.38499999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.570000</v>
+        <v>-103.57</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>16302.700095</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.528528</v>
+        <v>4.5285279999999997</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.886000</v>
+        <v>991.88599999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.567000</v>
+        <v>-125.56699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>16314.111056</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.531698</v>
+        <v>4.5316979999999996</v>
       </c>
       <c r="BA14" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.636000</v>
+        <v>-144.636</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>16325.082066</v>
+        <v>16325.082066000001</v>
       </c>
       <c r="BE14" s="1">
         <v>4.534745</v>
       </c>
       <c r="BF14" s="1">
-        <v>1047.370000</v>
+        <v>1047.3699999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-230.810000</v>
+        <v>-230.81</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>16336.066467</v>
+        <v>16336.066467000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.537796</v>
+        <v>4.5377960000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1127.710000</v>
+        <v>1127.71</v>
       </c>
       <c r="BL14" s="1">
-        <v>-369.004000</v>
+        <v>-369.00400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>16346.793446</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.540776</v>
+        <v>4.5407760000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-582.731000</v>
+        <v>-582.73099999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>16357.325991</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.543702</v>
+        <v>4.5437019999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>1410.640000</v>
+        <v>1410.64</v>
       </c>
       <c r="BV14" s="1">
-        <v>-810.923000</v>
+        <v>-810.923</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>16368.145226</v>
+        <v>16368.145226000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.546707</v>
+        <v>4.5467069999999996</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.170000</v>
+        <v>1575.17</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1049.710000</v>
+        <v>-1049.71</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>16380.320548</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.550089</v>
+        <v>4.5500889999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1991.090000</v>
+        <v>1991.09</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1605.520000</v>
+        <v>-1605.52</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>16208.055517</v>
+        <v>16208.055517000001</v>
       </c>
       <c r="B15" s="1">
-        <v>4.502238</v>
+        <v>4.5022380000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>900.434000</v>
+        <v>900.43399999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.760000</v>
+        <v>-194.76</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>16217.836095</v>
+        <v>16217.836095000001</v>
       </c>
       <c r="G15" s="1">
-        <v>4.504954</v>
+        <v>4.5049539999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>916.332000</v>
+        <v>916.33199999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-164.725000</v>
+        <v>-164.72499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>16228.332435</v>
       </c>
       <c r="L15" s="1">
-        <v>4.507870</v>
+        <v>4.5078699999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>938.783000</v>
+        <v>938.78300000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.190000</v>
+        <v>-118.19</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>16238.824803</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.510785</v>
+        <v>4.5107850000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>945.076000</v>
+        <v>945.07600000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.888000</v>
+        <v>-102.88800000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>16249.664869</v>
       </c>
       <c r="V15" s="1">
-        <v>4.513796</v>
+        <v>4.5137960000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>951.370000</v>
+        <v>951.37</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.426400</v>
+        <v>-89.426400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>16260.174631</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.516715</v>
+        <v>4.5167149999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>958.240000</v>
+        <v>958.24</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.176100</v>
+        <v>-80.176100000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>16270.684335</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.519635</v>
+        <v>4.5196350000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>963.103000</v>
+        <v>963.10299999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.986400</v>
+        <v>-79.986400000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>16281.194587</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.522554</v>
+        <v>4.5225540000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.111000</v>
+        <v>971.11099999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.249700</v>
+        <v>-88.249700000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>16291.936909</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.525538</v>
+        <v>4.5255380000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.364000</v>
+        <v>980.36400000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.553000</v>
+        <v>-103.553</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>16303.367712</v>
+        <v>16303.367711999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.528713</v>
+        <v>4.5287129999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.896000</v>
+        <v>991.89599999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.565000</v>
+        <v>-125.565</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>16314.526735</v>
+        <v>16314.526734999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.531813</v>
+        <v>4.5318129999999996</v>
       </c>
       <c r="BA15" s="1">
-        <v>1001.520000</v>
+        <v>1001.52</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.663000</v>
+        <v>-144.66300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>16325.552274</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.534876</v>
+        <v>4.5348759999999997</v>
       </c>
       <c r="BF15" s="1">
-        <v>1047.340000</v>
+        <v>1047.3399999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-230.809000</v>
+        <v>-230.809</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>16336.430563</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.537897</v>
+        <v>4.5378970000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1127.700000</v>
+        <v>1127.7</v>
       </c>
       <c r="BL15" s="1">
-        <v>-369.004000</v>
+        <v>-369.00400000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>16347.226485</v>
+        <v>16347.226484999999</v>
       </c>
       <c r="BO15" s="1">
         <v>4.540896</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.780000</v>
+        <v>1260.78</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-582.731000</v>
+        <v>-582.73099999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>16357.753542</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.543820</v>
+        <v>4.5438200000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="BV15" s="1">
-        <v>-810.982000</v>
+        <v>-810.98199999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>16368.578729</v>
+        <v>16368.578729000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.546827</v>
+        <v>4.5468270000000004</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.010000</v>
+        <v>1575.01</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1049.620000</v>
+        <v>-1049.6199999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>16380.842312</v>
+        <v>16380.842312000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.550234</v>
+        <v>4.5502339999999997</v>
       </c>
       <c r="CE15" s="1">
-        <v>1992.110000</v>
+        <v>1992.11</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1607.050000</v>
+        <v>-1607.05</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>16208.396765</v>
       </c>
@@ -4079,602 +4495,602 @@
         <v>4.502332</v>
       </c>
       <c r="C16" s="1">
-        <v>900.412000</v>
+        <v>900.41200000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.797000</v>
+        <v>-194.797</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>16218.180849</v>
       </c>
       <c r="G16" s="1">
-        <v>4.505050</v>
+        <v>4.5050499999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>916.973000</v>
+        <v>916.97299999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.770000</v>
+        <v>-164.77</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>16229.020385</v>
       </c>
       <c r="L16" s="1">
-        <v>4.508061</v>
+        <v>4.5080609999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>938.868000</v>
+        <v>938.86800000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.988000</v>
+        <v>-117.988</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>16239.522179</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.510978</v>
+        <v>4.5109779999999997</v>
       </c>
       <c r="R16" s="1">
-        <v>945.084000</v>
+        <v>945.08399999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.876000</v>
+        <v>-102.876</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>16250.011573</v>
       </c>
       <c r="V16" s="1">
-        <v>4.513892</v>
+        <v>4.5138920000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>951.348000</v>
+        <v>951.34799999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.421800</v>
+        <v>-89.421800000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>16260.520807</v>
+        <v>16260.520807000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.516811</v>
+        <v>4.5168109999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>958.360000</v>
+        <v>958.36</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.267000</v>
+        <v>-80.266999999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>16271.024585</v>
+        <v>16271.024584999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.519729</v>
+        <v>4.5197289999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.197000</v>
+        <v>963.197</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.048600</v>
+        <v>-80.048599999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>16281.850763</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.522736</v>
+        <v>4.5227360000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.121000</v>
+        <v>971.12099999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.250600</v>
+        <v>-88.250600000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>16292.602540</v>
+        <v>16292.60254</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.525723</v>
+        <v>4.5257230000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.363000</v>
+        <v>980.36300000000006</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.565000</v>
+        <v>-103.565</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>16303.824527</v>
+        <v>16303.824527000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.528840</v>
+        <v>4.5288399999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.852000</v>
+        <v>991.85199999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.569000</v>
+        <v>-125.569</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>16314.903696</v>
+        <v>16314.903695999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.531918</v>
+        <v>4.5319180000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1001.560000</v>
+        <v>1001.56</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.688000</v>
+        <v>-144.68799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>16325.910384</v>
+        <v>16325.910384000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.534975</v>
+        <v>4.5349750000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1047.350000</v>
+        <v>1047.3499999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-230.789000</v>
+        <v>-230.78899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>16336.805506</v>
+        <v>16336.805506000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.538002</v>
+        <v>4.5380019999999996</v>
       </c>
       <c r="BK16" s="1">
-        <v>1127.680000</v>
+        <v>1127.68</v>
       </c>
       <c r="BL16" s="1">
-        <v>-368.989000</v>
+        <v>-368.98899999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>16347.648548</v>
+        <v>16347.648547999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.541013</v>
+        <v>4.5410130000000004</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.740000</v>
+        <v>1260.74</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-582.718000</v>
+        <v>-582.71799999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>16358.175142</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.543938</v>
+        <v>4.5439379999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1410.360000</v>
+        <v>1410.36</v>
       </c>
       <c r="BV16" s="1">
-        <v>-810.895000</v>
+        <v>-810.89499999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>16368.998874</v>
+        <v>16368.998874000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.546944</v>
+        <v>4.5469439999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.040000</v>
+        <v>1575.04</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1049.620000</v>
+        <v>-1049.6199999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>16381.381464</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.550384</v>
+        <v>4.5503840000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1991.840000</v>
+        <v>1991.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1605.000000</v>
+        <v>-1605</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>16208.738971</v>
+        <v>16208.738971000001</v>
       </c>
       <c r="B17" s="1">
         <v>4.502427</v>
       </c>
       <c r="C17" s="1">
-        <v>900.509000</v>
+        <v>900.50900000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.911000</v>
+        <v>-194.911</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>16218.866782</v>
+        <v>16218.866781999999</v>
       </c>
       <c r="G17" s="1">
-        <v>4.505241</v>
+        <v>4.5052409999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>916.943000</v>
+        <v>916.94299999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-164.957000</v>
+        <v>-164.95699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>16229.365644</v>
       </c>
       <c r="L17" s="1">
-        <v>4.508157</v>
+        <v>4.5081569999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>938.758000</v>
+        <v>938.75800000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.128000</v>
+        <v>-118.128</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>16239.870620</v>
+        <v>16239.87062</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.511075</v>
+        <v>4.5110749999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>945.128000</v>
+        <v>945.12800000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.887000</v>
+        <v>-102.887</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>16250.356790</v>
+        <v>16250.35679</v>
       </c>
       <c r="V17" s="1">
-        <v>4.513988</v>
+        <v>4.5139880000000003</v>
       </c>
       <c r="W17" s="1">
-        <v>951.281000</v>
+        <v>951.28099999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.479600</v>
+        <v>-89.479600000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>16261.172066</v>
+        <v>16261.172065999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.516992</v>
+        <v>4.5169920000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>958.313000</v>
+        <v>958.31299999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.212000</v>
+        <v>-80.212000000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>16271.685752</v>
+        <v>16271.685751999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.519913</v>
+        <v>4.5199129999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>963.250000</v>
+        <v>963.25</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.123500</v>
+        <v>-80.123500000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>16282.242143</v>
+        <v>16282.242142999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.522845</v>
+        <v>4.5228450000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.124000</v>
+        <v>971.12400000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.272800</v>
+        <v>-88.272800000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>16293.049932</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.525847</v>
+        <v>4.5258469999999997</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.386000</v>
+        <v>980.38599999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.568000</v>
+        <v>-103.568</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>16304.189087</v>
+        <v>16304.189087000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.528941</v>
+        <v>4.5289409999999997</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.861000</v>
+        <v>991.86099999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.576000</v>
+        <v>-125.57599999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>16315.281119</v>
+        <v>16315.281118999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.532023</v>
+        <v>4.5320229999999997</v>
       </c>
       <c r="BA17" s="1">
-        <v>1001.550000</v>
+        <v>1001.55</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.676000</v>
+        <v>-144.67599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>16326.271474</v>
+        <v>16326.271473999999</v>
       </c>
       <c r="BE17" s="1">
         <v>4.535075</v>
       </c>
       <c r="BF17" s="1">
-        <v>1047.320000</v>
+        <v>1047.32</v>
       </c>
       <c r="BG17" s="1">
-        <v>-230.819000</v>
+        <v>-230.81899999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>16337.219666</v>
+        <v>16337.219666000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.538117</v>
+        <v>4.5381169999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1127.700000</v>
+        <v>1127.7</v>
       </c>
       <c r="BL17" s="1">
-        <v>-368.972000</v>
+        <v>-368.97199999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>16348.047363</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.541124</v>
+        <v>4.5411239999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-582.707000</v>
+        <v>-582.70699999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>16358.582853</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.544051</v>
+        <v>4.5440509999999996</v>
       </c>
       <c r="BU17" s="1">
-        <v>1410.360000</v>
+        <v>1410.36</v>
       </c>
       <c r="BV17" s="1">
-        <v>-810.971000</v>
+        <v>-810.971</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>16369.422919</v>
+        <v>16369.422919000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.547062</v>
+        <v>4.5470620000000004</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.060000</v>
+        <v>1575.06</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1049.630000</v>
+        <v>-1049.6300000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>16381.920614</v>
+        <v>16381.920614000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.550534</v>
+        <v>4.5505339999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1991.350000</v>
+        <v>1991.35</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1606.790000</v>
+        <v>-1606.79</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>16209.422956</v>
       </c>
       <c r="B18" s="1">
-        <v>4.502617</v>
+        <v>4.5026169999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>900.370000</v>
+        <v>900.37</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.679000</v>
+        <v>-194.679</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>16219.211503</v>
       </c>
       <c r="G18" s="1">
-        <v>4.505337</v>
+        <v>4.5053369999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>916.898000</v>
+        <v>916.89800000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.935000</v>
+        <v>-164.935</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>16229.710352</v>
       </c>
       <c r="L18" s="1">
-        <v>4.508253</v>
+        <v>4.5082529999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>938.834000</v>
+        <v>938.83399999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.013000</v>
+        <v>-118.01300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>16240.217603</v>
+        <v>16240.217602999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.511172</v>
+        <v>4.5111720000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>945.085000</v>
+        <v>945.08500000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.916000</v>
+        <v>-102.916</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>16251.004595</v>
       </c>
       <c r="V18" s="1">
-        <v>4.514168</v>
+        <v>4.5141679999999997</v>
       </c>
       <c r="W18" s="1">
-        <v>951.295000</v>
+        <v>951.29499999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.439700</v>
+        <v>-89.439700000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>16261.565878</v>
+        <v>16261.565877999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.517102</v>
+        <v>4.5171020000000004</v>
       </c>
       <c r="AB18" s="1">
-        <v>958.408000</v>
+        <v>958.40800000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.217400</v>
+        <v>-80.217399999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>16272.058745</v>
@@ -4683,180 +5099,180 @@
         <v>4.520016</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.148000</v>
+        <v>963.14800000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.147800</v>
+        <v>-80.147800000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>16282.591290</v>
+        <v>16282.59129</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.522942</v>
+        <v>4.5229419999999996</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.129000</v>
+        <v>971.12900000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.231900</v>
+        <v>-88.231899999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>16293.408043</v>
+        <v>16293.408042999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.525947</v>
+        <v>4.5259470000000004</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.384000</v>
+        <v>980.38400000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.578000</v>
+        <v>-103.578</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>16304.555133</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.529043</v>
+        <v>4.5290429999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.883000</v>
+        <v>991.88300000000004</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.562000</v>
+        <v>-125.562</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>16315.695774</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.532138</v>
+        <v>4.5321379999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.679000</v>
+        <v>-144.679</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>16326.991695</v>
+        <v>16326.991695000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.535275</v>
+        <v>4.5352750000000004</v>
       </c>
       <c r="BF18" s="1">
-        <v>1047.350000</v>
+        <v>1047.3499999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-230.772000</v>
+        <v>-230.77199999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>16337.555459</v>
+        <v>16337.555458999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.538210</v>
+        <v>4.5382100000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1127.710000</v>
+        <v>1127.71</v>
       </c>
       <c r="BL18" s="1">
-        <v>-368.977000</v>
+        <v>-368.97699999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>16348.446116</v>
+        <v>16348.446115999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.541235</v>
+        <v>4.5412350000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.740000</v>
+        <v>1260.74</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-582.724000</v>
+        <v>-582.72400000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>16358.998997</v>
+        <v>16358.998997000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.544166</v>
+        <v>4.5441659999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1410.140000</v>
+        <v>1410.14</v>
       </c>
       <c r="BV18" s="1">
-        <v>-810.953000</v>
+        <v>-810.95299999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>16369.846998</v>
+        <v>16369.846998000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.547180</v>
+        <v>4.54718</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1575.090000</v>
+        <v>1575.09</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1049.560000</v>
+        <v>-1049.56</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>16382.458775</v>
+        <v>16382.458774999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.550683</v>
+        <v>4.5506830000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>1992.800000</v>
+        <v>1992.8</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1605.460000</v>
+        <v>-1605.46</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>16209.771146</v>
+        <v>16209.771145999999</v>
       </c>
       <c r="B19" s="1">
-        <v>4.502714</v>
+        <v>4.5027140000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>900.339000</v>
+        <v>900.33900000000006</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.720000</v>
+        <v>-194.72</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>16219.558702</v>
@@ -4865,13 +5281,13 @@
         <v>4.505433</v>
       </c>
       <c r="H19" s="1">
-        <v>916.618000</v>
+        <v>916.61800000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-164.781000</v>
+        <v>-164.78100000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>16230.353631</v>
@@ -4880,270 +5296,270 @@
         <v>4.508432</v>
       </c>
       <c r="M19" s="1">
-        <v>938.732000</v>
+        <v>938.73199999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.118000</v>
+        <v>-118.11799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>16240.873810</v>
+        <v>16240.873809999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.511354</v>
+        <v>4.5113539999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>945.054000</v>
+        <v>945.05399999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.939000</v>
+        <v>-102.93899999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>16251.389992</v>
       </c>
       <c r="V19" s="1">
-        <v>4.514275</v>
+        <v>4.5142749999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>951.349000</v>
+        <v>951.34900000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.410100</v>
+        <v>-89.4101</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>16261.914567</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.517198</v>
+        <v>4.5171979999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>958.388000</v>
+        <v>958.38800000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.206700</v>
+        <v>-80.206699999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>16272.402999</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.520112</v>
+        <v>4.5201120000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>963.405000</v>
+        <v>963.40499999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.108000</v>
+        <v>-80.108000000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>16282.940506</v>
+        <v>16282.940506000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.523039</v>
+        <v>4.5230389999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.118000</v>
+        <v>971.11800000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.247500</v>
+        <v>-88.247500000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>16293.830635</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.526064</v>
+        <v>4.5260639999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.377000</v>
+        <v>980.37699999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.564000</v>
+        <v>-103.56399999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>16304.972268</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.529159</v>
+        <v>4.5291589999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.892000</v>
+        <v>991.89200000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.575000</v>
+        <v>-125.575</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>16315.999325</v>
+        <v>16315.999325000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>4.532222</v>
       </c>
       <c r="BA19" s="1">
-        <v>1001.550000</v>
+        <v>1001.55</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.681000</v>
+        <v>-144.68100000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>16327.379365</v>
+        <v>16327.379365000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.535383</v>
+        <v>4.5353830000000004</v>
       </c>
       <c r="BF19" s="1">
-        <v>1047.350000</v>
+        <v>1047.3499999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-230.803000</v>
+        <v>-230.803</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>16337.942338</v>
+        <v>16337.942338000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.538317</v>
+        <v>4.5383170000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1127.710000</v>
+        <v>1127.71</v>
       </c>
       <c r="BL19" s="1">
-        <v>-368.986000</v>
+        <v>-368.98599999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>16348.866226</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.541352</v>
+        <v>4.5413519999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-582.743000</v>
+        <v>-582.74300000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>16359.732580</v>
+        <v>16359.73258</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.544370</v>
+        <v>4.5443699999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1410.150000</v>
+        <v>1410.15</v>
       </c>
       <c r="BV19" s="1">
-        <v>-811.110000</v>
+        <v>-811.11</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>16370.269591</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.547297</v>
+        <v>4.5472970000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.010000</v>
+        <v>1575.01</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1049.570000</v>
+        <v>-1049.57</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>16383.000425</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.550833</v>
+        <v>4.5508329999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1991.120000</v>
+        <v>1991.12</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1605.610000</v>
+        <v>-1605.61</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>16210.105947</v>
       </c>
       <c r="B20" s="1">
-        <v>4.502807</v>
+        <v>4.5028069999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>900.430000</v>
+        <v>900.43</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.478000</v>
+        <v>-194.47800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>16220.209485</v>
+        <v>16220.209484999999</v>
       </c>
       <c r="G20" s="1">
-        <v>4.505614</v>
+        <v>4.5056139999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>916.549000</v>
+        <v>916.54899999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.739000</v>
+        <v>-164.739</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>16230.750431</v>
       </c>
       <c r="L20" s="1">
-        <v>4.508542</v>
+        <v>4.5085420000000003</v>
       </c>
       <c r="M20" s="1">
-        <v>938.833000</v>
+        <v>938.83299999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.053000</v>
+        <v>-118.053</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>16241.267104</v>
@@ -5152,58 +5568,58 @@
         <v>4.511463</v>
       </c>
       <c r="R20" s="1">
-        <v>945.068000</v>
+        <v>945.06799999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.932000</v>
+        <v>-102.932</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>16251.739172</v>
       </c>
       <c r="V20" s="1">
-        <v>4.514372</v>
+        <v>4.5143719999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>951.246000</v>
+        <v>951.24599999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.455600</v>
+        <v>-89.455600000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>16262.264740</v>
+        <v>16262.264740000001</v>
       </c>
       <c r="AA20" s="1">
         <v>4.517296</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.318000</v>
+        <v>958.31799999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.165100</v>
+        <v>-80.165099999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>16272.751656</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.520209</v>
+        <v>4.5202090000000004</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.027000</v>
+        <v>963.02700000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.184000</v>
+        <v>-80.183999999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>16283.357112</v>
@@ -5212,240 +5628,240 @@
         <v>4.523155</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.107000</v>
+        <v>971.10699999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.252000</v>
+        <v>-88.251999999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>16294.128762</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.526147</v>
+        <v>4.5261469999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.403000</v>
+        <v>980.40300000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.574000</v>
+        <v>-103.574</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>16305.285279</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.529246</v>
+        <v>4.5292459999999997</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.880000</v>
+        <v>991.88</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.561000</v>
+        <v>-125.56100000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>16316.358461</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.532322</v>
+        <v>4.5323219999999997</v>
       </c>
       <c r="BA20" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.675000</v>
+        <v>-144.67500000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>16327.761486</v>
+        <v>16327.761485999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.535489</v>
+        <v>4.5354890000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1047.330000</v>
+        <v>1047.33</v>
       </c>
       <c r="BG20" s="1">
-        <v>-230.813000</v>
+        <v>-230.81299999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>16338.329248</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.538425</v>
+        <v>4.5384250000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1127.690000</v>
+        <v>1127.69</v>
       </c>
       <c r="BL20" s="1">
-        <v>-368.974000</v>
+        <v>-368.97399999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>16349.274931</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.541465</v>
+        <v>4.5414649999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-582.723000</v>
+        <v>-582.72299999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>16359.852650</v>
+        <v>16359.852650000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.544404</v>
+        <v>4.5444040000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1410.140000</v>
+        <v>1410.14</v>
       </c>
       <c r="BV20" s="1">
-        <v>-811.178000</v>
+        <v>-811.178</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>16370.711525</v>
+        <v>16370.711525000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.547420</v>
+        <v>4.5474199999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.070000</v>
+        <v>1575.07</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1049.700000</v>
+        <v>-1049.7</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>16383.540061</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.550983</v>
+        <v>4.5509829999999996</v>
       </c>
       <c r="CE20" s="1">
-        <v>1992.480000</v>
+        <v>1992.48</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1606.720000</v>
+        <v>-1606.72</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>16210.554330</v>
+        <v>16210.554330000001</v>
       </c>
       <c r="B21" s="1">
-        <v>4.502932</v>
+        <v>4.5029320000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>900.475000</v>
+        <v>900.47500000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.914000</v>
+        <v>-194.91399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>16220.593852</v>
       </c>
       <c r="G21" s="1">
-        <v>4.505721</v>
+        <v>4.5057210000000003</v>
       </c>
       <c r="H21" s="1">
-        <v>916.385000</v>
+        <v>916.38499999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.908000</v>
+        <v>-164.90799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>16231.095646</v>
       </c>
       <c r="L21" s="1">
-        <v>4.508638</v>
+        <v>4.5086380000000004</v>
       </c>
       <c r="M21" s="1">
-        <v>938.792000</v>
+        <v>938.79200000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.940000</v>
+        <v>-117.94</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>16241.615330</v>
+        <v>16241.615330000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.511560</v>
+        <v>4.5115600000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>945.086000</v>
+        <v>945.08600000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.889000</v>
+        <v>-102.889</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>16252.082408</v>
       </c>
       <c r="V21" s="1">
-        <v>4.514467</v>
+        <v>4.5144669999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>951.289000</v>
+        <v>951.28899999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.456400</v>
+        <v>-89.456400000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>16262.684853</v>
+        <v>16262.684853000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.517412</v>
+        <v>4.5174120000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>958.356000</v>
+        <v>958.35599999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.206800</v>
+        <v>-80.206800000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>16273.178247</v>
@@ -5454,240 +5870,240 @@
         <v>4.520327</v>
       </c>
       <c r="AG21" s="1">
-        <v>963.201000</v>
+        <v>963.20100000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.111400</v>
+        <v>-80.111400000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>16283.648791</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.523236</v>
+        <v>4.5232359999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.126000</v>
+        <v>971.12599999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.251600</v>
+        <v>-88.251599999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>16294.487872</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.526247</v>
+        <v>4.5262469999999997</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.384000</v>
+        <v>980.38400000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.567000</v>
+        <v>-103.56699999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>16305.647325</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.529346</v>
+        <v>4.5293460000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.873000</v>
+        <v>991.87300000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.568000</v>
+        <v>-125.568</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>16316.717569</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.532422</v>
+        <v>4.5324220000000004</v>
       </c>
       <c r="BA21" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.680000</v>
+        <v>-144.68</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>16328.483135</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.535690</v>
+        <v>4.5356899999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1047.350000</v>
+        <v>1047.3499999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-230.790000</v>
+        <v>-230.79</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>16339.079201</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.538633</v>
+        <v>4.5386329999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1127.680000</v>
+        <v>1127.68</v>
       </c>
       <c r="BL21" s="1">
-        <v>-368.993000</v>
+        <v>-368.99299999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>16349.685121</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.541579</v>
+        <v>4.5415789999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-582.698000</v>
+        <v>-582.69799999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>16360.289091</v>
+        <v>16360.289091000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.544525</v>
+        <v>4.5445250000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1410.050000</v>
+        <v>1410.05</v>
       </c>
       <c r="BV21" s="1">
-        <v>-811.282000</v>
+        <v>-811.28200000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>16371.131670</v>
+        <v>16371.131670000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.547537</v>
+        <v>4.5475370000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.120000</v>
+        <v>1575.12</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1049.530000</v>
+        <v>-1049.53</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>16384.389699</v>
+        <v>16384.389698999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.551219</v>
+        <v>4.5512189999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>1990.710000</v>
+        <v>1990.71</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1605.980000</v>
+        <v>-1605.98</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>16210.804313</v>
+        <v>16210.804313000001</v>
       </c>
       <c r="B22" s="1">
-        <v>4.503001</v>
+        <v>4.5030010000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>900.477000</v>
+        <v>900.47699999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.692000</v>
+        <v>-194.69200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>16220.937581</v>
       </c>
       <c r="G22" s="1">
-        <v>4.505816</v>
+        <v>4.5058160000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>916.645000</v>
+        <v>916.64499999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.575000</v>
+        <v>-164.57499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>16231.429453</v>
+        <v>16231.429453000001</v>
       </c>
       <c r="L22" s="1">
-        <v>4.508730</v>
+        <v>4.5087299999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>938.606000</v>
+        <v>938.60599999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.033000</v>
+        <v>-118.033</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>16241.968449</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.511658</v>
+        <v>4.5116579999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>945.099000</v>
+        <v>945.09900000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.890000</v>
+        <v>-102.89</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>16252.501986</v>
+        <v>16252.501985999999</v>
       </c>
       <c r="V22" s="1">
-        <v>4.514584</v>
+        <v>4.5145840000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>951.318000</v>
+        <v>951.31799999999998</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.409200</v>
+        <v>-89.409199999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>16262.975011</v>
@@ -5696,300 +6112,300 @@
         <v>4.517493</v>
       </c>
       <c r="AB22" s="1">
-        <v>958.211000</v>
+        <v>958.21100000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.212000</v>
+        <v>-80.212000000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>16273.456504</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.520405</v>
+        <v>4.5204050000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.157000</v>
+        <v>963.15700000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.167700</v>
+        <v>-80.167699999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>16283.996457</v>
+        <v>16283.996456999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.523332</v>
+        <v>4.5233319999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.143000</v>
+        <v>971.14300000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.248300</v>
+        <v>-88.2483</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>16294.846442</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.526346</v>
+        <v>4.5263460000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.388000</v>
+        <v>980.38800000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.576000</v>
+        <v>-103.57599999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>16306.014533</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.529448</v>
+        <v>4.5294480000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.817000</v>
+        <v>991.81700000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.577000</v>
+        <v>-125.577</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>16317.434252</v>
+        <v>16317.434251999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.532621</v>
+        <v>4.5326209999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.682000</v>
+        <v>-144.68199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>16328.844717</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.535790</v>
+        <v>4.5357900000000004</v>
       </c>
       <c r="BF22" s="1">
-        <v>1047.320000</v>
+        <v>1047.32</v>
       </c>
       <c r="BG22" s="1">
-        <v>-230.799000</v>
+        <v>-230.79900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>16339.480928</v>
+        <v>16339.480928000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.538745</v>
+        <v>4.5387449999999996</v>
       </c>
       <c r="BK22" s="1">
-        <v>1127.700000</v>
+        <v>1127.7</v>
       </c>
       <c r="BL22" s="1">
-        <v>-368.990000</v>
+        <v>-368.99</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>16350.082913</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.541690</v>
+        <v>4.54169</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.740000</v>
+        <v>1260.74</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-582.721000</v>
+        <v>-582.721</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>16361.018706</v>
+        <v>16361.018706000001</v>
       </c>
       <c r="BT22" s="1">
         <v>4.544727</v>
       </c>
       <c r="BU22" s="1">
-        <v>1410.190000</v>
+        <v>1410.19</v>
       </c>
       <c r="BV22" s="1">
-        <v>-811.408000</v>
+        <v>-811.40800000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>16371.873157</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.547743</v>
+        <v>4.5477429999999996</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1575.050000</v>
+        <v>1575.05</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1049.620000</v>
+        <v>-1049.6199999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>16384.618355</v>
+        <v>16384.618354999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.551283</v>
+        <v>4.5512829999999997</v>
       </c>
       <c r="CE22" s="1">
-        <v>1990.960000</v>
+        <v>1990.96</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1606.100000</v>
+        <v>-1606.1</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>16211.148536</v>
+        <v>16211.148536000001</v>
       </c>
       <c r="B23" s="1">
-        <v>4.503097</v>
+        <v>4.5030970000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>900.536000</v>
+        <v>900.53599999999994</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.492000</v>
+        <v>-194.49199999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>16221.279354</v>
       </c>
       <c r="G23" s="1">
-        <v>4.505911</v>
+        <v>4.5059110000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>917.239000</v>
+        <v>917.23900000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.648000</v>
+        <v>-164.648</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>16231.853037</v>
+        <v>16231.853037000001</v>
       </c>
       <c r="L23" s="1">
-        <v>4.508848</v>
+        <v>4.5088480000000004</v>
       </c>
       <c r="M23" s="1">
-        <v>938.764000</v>
+        <v>938.76400000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.072000</v>
+        <v>-118.072</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>16242.395504</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.511777</v>
+        <v>4.5117770000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>945.115000</v>
+        <v>945.11500000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.914000</v>
+        <v>-102.914</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>16252.780241</v>
       </c>
       <c r="V23" s="1">
-        <v>4.514661</v>
+        <v>4.5146610000000003</v>
       </c>
       <c r="W23" s="1">
-        <v>951.236000</v>
+        <v>951.23599999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.412800</v>
+        <v>-89.412800000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>16263.326179</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.517591</v>
+        <v>4.5175910000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.250000</v>
+        <v>958.25</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.201300</v>
+        <v>-80.201300000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>16273.800198</v>
+        <v>16273.800198000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.520500</v>
+        <v>4.5205000000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.326000</v>
+        <v>963.32600000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.086600</v>
+        <v>-80.086600000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>16284.344151</v>
+        <v>16284.344150999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.523429</v>
+        <v>4.5234290000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.121000</v>
+        <v>971.12099999999998</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.244900</v>
+        <v>-88.244900000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>16295.571097</v>
@@ -5998,330 +6414,330 @@
         <v>4.526548</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.371000</v>
+        <v>980.37099999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.576000</v>
+        <v>-103.57599999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>16306.750427</v>
+        <v>16306.750427000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.529653</v>
+        <v>4.5296529999999997</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.801000</v>
+        <v>991.80100000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.580000</v>
+        <v>-125.58</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>16317.794843</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.532721</v>
+        <v>4.5327210000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1001.550000</v>
+        <v>1001.55</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.698000</v>
+        <v>-144.69800000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>16329.203853</v>
+        <v>16329.203853000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.535890</v>
+        <v>4.5358900000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1047.330000</v>
+        <v>1047.33</v>
       </c>
       <c r="BG23" s="1">
-        <v>-230.799000</v>
+        <v>-230.79900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>16339.857390</v>
+        <v>16339.857389999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.538849</v>
+        <v>4.5388489999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1127.710000</v>
+        <v>1127.71</v>
       </c>
       <c r="BL23" s="1">
-        <v>-369.002000</v>
+        <v>-369.00200000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>16350.821456</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.541895</v>
+        <v>4.5418950000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-582.745000</v>
+        <v>-582.745</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>16361.165026</v>
+        <v>16361.165026000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.544768</v>
+        <v>4.5447680000000004</v>
       </c>
       <c r="BU23" s="1">
-        <v>1410.200000</v>
+        <v>1410.2</v>
       </c>
       <c r="BV23" s="1">
-        <v>-811.529000</v>
+        <v>-811.529</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>16372.035347</v>
+        <v>16372.035346999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.547788</v>
+        <v>4.5477879999999997</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1574.930000</v>
+        <v>1574.93</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1049.670000</v>
+        <v>-1049.67</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>16385.140146</v>
+        <v>16385.140146000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.551428</v>
+        <v>4.5514279999999996</v>
       </c>
       <c r="CE23" s="1">
-        <v>1992.260000</v>
+        <v>1992.26</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1606.570000</v>
+        <v>-1606.57</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>16211.566664</v>
       </c>
       <c r="B24" s="1">
-        <v>4.503213</v>
+        <v>4.5032129999999997</v>
       </c>
       <c r="C24" s="1">
-        <v>900.391000</v>
+        <v>900.39099999999996</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.718000</v>
+        <v>-194.71799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>16221.699930</v>
+        <v>16221.699930000001</v>
       </c>
       <c r="G24" s="1">
-        <v>4.506028</v>
+        <v>4.5060279999999997</v>
       </c>
       <c r="H24" s="1">
-        <v>917.082000</v>
+        <v>917.08199999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.856000</v>
+        <v>-164.85599999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>16232.132284</v>
+        <v>16232.132283999999</v>
       </c>
       <c r="L24" s="1">
-        <v>4.508926</v>
+        <v>4.5089259999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>938.948000</v>
+        <v>938.94799999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.258000</v>
+        <v>-118.258</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>16242.671278</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.511853</v>
+        <v>4.5118530000000003</v>
       </c>
       <c r="R24" s="1">
-        <v>945.123000</v>
+        <v>945.12300000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.920000</v>
+        <v>-102.92</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>16253.122977</v>
+        <v>16253.122977000001</v>
       </c>
       <c r="V24" s="1">
-        <v>4.514756</v>
+        <v>4.5147560000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>951.303000</v>
+        <v>951.303</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.479000</v>
+        <v>-89.478999999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>16263.675395</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.517688</v>
+        <v>4.5176879999999997</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.311000</v>
+        <v>958.31100000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.256800</v>
+        <v>-80.256799999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>16274.144917</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.520596</v>
+        <v>4.5205960000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>963.160000</v>
+        <v>963.16</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.096200</v>
+        <v>-80.096199999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>16285.040536</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.523622</v>
+        <v>4.5236219999999996</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.130000</v>
+        <v>971.13</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.251200</v>
+        <v>-88.251199999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>16295.957976</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.526655</v>
+        <v>4.5266549999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.380000</v>
+        <v>980.38</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.573000</v>
+        <v>-103.57299999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>16307.129898</v>
+        <v>16307.129897999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.529758</v>
+        <v>4.5297580000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.816000</v>
+        <v>991.81600000000003</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.584000</v>
+        <v>-125.584</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>16318.150513</v>
+        <v>16318.150513000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.532820</v>
+        <v>4.5328200000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.691000</v>
+        <v>-144.691</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>16329.871931</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.536076</v>
+        <v>4.5360760000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1047.330000</v>
+        <v>1047.33</v>
       </c>
       <c r="BG24" s="1">
-        <v>-230.796000</v>
+        <v>-230.79599999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>16340.534429</v>
+        <v>16340.534428999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.539037</v>
+        <v>4.5390370000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1127.700000</v>
+        <v>1127.7</v>
       </c>
       <c r="BL24" s="1">
-        <v>-368.986000</v>
+        <v>-368.98599999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>16350.929124</v>
@@ -6330,135 +6746,135 @@
         <v>4.541925</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-582.721000</v>
+        <v>-582.721</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>16361.577699</v>
+        <v>16361.577698999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.544883</v>
+        <v>4.5448829999999996</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.270000</v>
+        <v>1410.27</v>
       </c>
       <c r="BV24" s="1">
-        <v>-811.590000</v>
+        <v>-811.59</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>16372.462403</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.547906</v>
+        <v>4.5479060000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1574.960000</v>
+        <v>1574.96</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1049.700000</v>
+        <v>-1049.7</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>16385.659495</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.551572</v>
+        <v>4.5515720000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>1992.560000</v>
+        <v>1992.56</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1605.160000</v>
+        <v>-1605.16</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>16211.846935</v>
       </c>
       <c r="B25" s="1">
-        <v>4.503291</v>
+        <v>4.5032909999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>900.197000</v>
+        <v>900.197</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.670000</v>
+        <v>-194.67</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>16221.976202</v>
       </c>
       <c r="G25" s="1">
-        <v>4.506105</v>
+        <v>4.5061049999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>916.944000</v>
+        <v>916.94399999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.877000</v>
+        <v>-164.87700000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>16232.477037</v>
+        <v>16232.477037000001</v>
       </c>
       <c r="L25" s="1">
-        <v>4.509021</v>
+        <v>4.5090209999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>938.763000</v>
+        <v>938.76300000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.063000</v>
+        <v>-118.063</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>16243.017529</v>
+        <v>16243.017529000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.511949</v>
+        <v>4.5119490000000004</v>
       </c>
       <c r="R25" s="1">
-        <v>945.072000</v>
+        <v>945.072</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.944000</v>
+        <v>-102.944</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>16253.468194</v>
+        <v>16253.468193999999</v>
       </c>
       <c r="V25" s="1">
-        <v>4.514852</v>
+        <v>4.5148520000000003</v>
       </c>
       <c r="W25" s="1">
-        <v>951.272000</v>
+        <v>951.27200000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.377600</v>
+        <v>-89.377600000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>16264.371292</v>
@@ -6467,390 +6883,390 @@
         <v>4.517881</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.325000</v>
+        <v>958.32500000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.230100</v>
+        <v>-80.230099999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>16274.829892</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.520786</v>
+        <v>4.5207860000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>963.257000</v>
+        <v>963.25699999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.065500</v>
+        <v>-80.0655</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>16285.389751</v>
+        <v>16285.389751000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.523719</v>
+        <v>4.5237189999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.133000</v>
+        <v>971.13300000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.269600</v>
+        <v>-88.269599999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>16296.319096</v>
+        <v>16296.319095999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.526755</v>
+        <v>4.5267549999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.391000</v>
+        <v>980.39099999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.567000</v>
+        <v>-103.56699999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>16307.492939</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.529859</v>
+        <v>4.5298590000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.805000</v>
+        <v>991.80499999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.635000</v>
+        <v>-125.63500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>16318.818090</v>
+        <v>16318.818090000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.533005</v>
+        <v>4.5330050000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1001.550000</v>
+        <v>1001.55</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.693000</v>
+        <v>-144.69300000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>16330.315355</v>
+        <v>16330.315355000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.536199</v>
+        <v>4.5361989999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1047.350000</v>
+        <v>1047.3499999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-230.796000</v>
+        <v>-230.79599999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>16340.643053</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.539068</v>
+        <v>4.5390680000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1127.670000</v>
+        <v>1127.67</v>
       </c>
       <c r="BL25" s="1">
-        <v>-368.975000</v>
+        <v>-368.97500000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>16351.321456</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.542034</v>
+        <v>4.5420340000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.770000</v>
+        <v>1260.77</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-582.738000</v>
+        <v>-582.73800000000006</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>16362.001778</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.545000</v>
+        <v>4.5449999999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1410.350000</v>
+        <v>1410.35</v>
       </c>
       <c r="BV25" s="1">
-        <v>-811.624000</v>
+        <v>-811.62400000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>16372.910322</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.548031</v>
+        <v>4.5480309999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.020000</v>
+        <v>1575.02</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1049.660000</v>
+        <v>-1049.6600000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>16386.174801</v>
+        <v>16386.174801000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.551715</v>
+        <v>4.5517149999999997</v>
       </c>
       <c r="CE25" s="1">
-        <v>1990.970000</v>
+        <v>1990.97</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1605.190000</v>
+        <v>-1605.19</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>16212.191159</v>
       </c>
       <c r="B26" s="1">
-        <v>4.503386</v>
+        <v>4.5033859999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>900.261000</v>
+        <v>900.26099999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.835000</v>
+        <v>-194.83500000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>16222.318970</v>
+        <v>16222.31897</v>
       </c>
       <c r="G26" s="1">
-        <v>4.506200</v>
+        <v>4.5061999999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>916.742000</v>
+        <v>916.74199999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.049000</v>
+        <v>-165.04900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>16232.822257</v>
       </c>
       <c r="L26" s="1">
-        <v>4.509117</v>
+        <v>4.5091169999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>938.641000</v>
+        <v>938.64099999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.112000</v>
+        <v>-118.11199999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>16243.684640</v>
+        <v>16243.684639999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.512135</v>
+        <v>4.5121349999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>945.071000</v>
+        <v>945.07100000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.883000</v>
+        <v>-102.883</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>16254.152673</v>
+        <v>16254.152673000001</v>
       </c>
       <c r="V26" s="1">
-        <v>4.515042</v>
+        <v>4.5150420000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>951.304000</v>
+        <v>951.30399999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.430400</v>
+        <v>-89.430400000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>16264.721425</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.517978</v>
+        <v>4.5179780000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.209000</v>
+        <v>958.20899999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.396400</v>
+        <v>-80.3964</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>16275.174148</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.520882</v>
+        <v>4.5208820000000003</v>
       </c>
       <c r="AG26" s="1">
-        <v>963.232000</v>
+        <v>963.23199999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.956900</v>
+        <v>-79.956900000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>16285.736917</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.523816</v>
+        <v>4.5238160000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.117000</v>
+        <v>971.11699999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.225800</v>
+        <v>-88.225800000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>16296.983703</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.526940</v>
+        <v>4.5269399999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.371000</v>
+        <v>980.37099999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.575000</v>
+        <v>-103.575</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>16308.170968</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.530047</v>
+        <v>4.5300469999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.834000</v>
+        <v>991.83399999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.676000</v>
+        <v>-125.676</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>16319.225834</v>
+        <v>16319.225834000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>4.533118</v>
       </c>
       <c r="BA26" s="1">
-        <v>1001.560000</v>
+        <v>1001.56</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.690000</v>
+        <v>-144.69</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>16330.674955</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.536299</v>
+        <v>4.5362989999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1047.320000</v>
+        <v>1047.32</v>
       </c>
       <c r="BG26" s="1">
-        <v>-230.804000</v>
+        <v>-230.804</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>16341.005133</v>
+        <v>16341.005133000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.539168</v>
+        <v>4.5391680000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1127.710000</v>
+        <v>1127.71</v>
       </c>
       <c r="BL26" s="1">
-        <v>-368.964000</v>
+        <v>-368.964</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>16351.745998</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.542152</v>
+        <v>4.5421519999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.750000</v>
+        <v>1260.75</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-582.772000</v>
+        <v>-582.77200000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>16362.414945</v>
@@ -6859,45 +7275,46 @@
         <v>4.545115</v>
       </c>
       <c r="BU26" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="BV26" s="1">
-        <v>-811.658000</v>
+        <v>-811.65800000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>16373.340819</v>
+        <v>16373.340818999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.548150</v>
+        <v>4.5481499999999997</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.110000</v>
+        <v>1575.11</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1049.630000</v>
+        <v>-1049.6300000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>16386.693121</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.551859</v>
+        <v>4.5518590000000003</v>
       </c>
       <c r="CE26" s="1">
-        <v>1991.550000</v>
+        <v>1991.55</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1604.850000</v>
+        <v>-1604.85</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>